--- a/biology/Zoologie/Choresine/Choresine.xlsx
+++ b/biology/Zoologie/Choresine/Choresine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Choresine est un genre de coléoptères de la famille des Melyridae.
-Ces insectes contiennent de faible dose de batrachotoxine, et pourraient être la source du poison trouvé dans la peau de certaines grenouilles tropicales (du genre Phyllobates) et chez certains oiseaux vénéneux du genre Pitohui[1] mais aussi chez l'Ifrita de Kowald[2].
+Ces insectes contiennent de faible dose de batrachotoxine, et pourraient être la source du poison trouvé dans la peau de certaines grenouilles tropicales (du genre Phyllobates) et chez certains oiseaux vénéneux du genre Pitohui mais aussi chez l'Ifrita de Kowald.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Choresine advena Pascoe, 1860
 Choresine buruensis Champion, 1923
